--- a/Recycling/Met_rec/metrec_Avg_target_Max.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_target_Max.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -2907,7 +2907,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>197101.2572140934</v>
+        <v>197101.2572140933</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>253072.8266469312</v>
+        <v>253072.8266469313</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3303,7 +3303,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>584138.3258919509</v>
+        <v>584138.3258919507</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4887,7 +4887,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>680299.7968785909</v>
+        <v>680299.7968785911</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5085,7 +5085,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>853895.316417994</v>
+        <v>853895.3164179937</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Avg_target_Max.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_target_Max.xlsx
@@ -1764,7 +1764,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1.747832629106875</v>
+        <v>1.747832629106876</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2464,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>95.6846057299074</v>
+        <v>95.68460572990742</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3688,7 +3688,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>799.2258391314398</v>
+        <v>799.2258391314399</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4096,7 +4096,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>2099.295576946713</v>
+        <v>2099.295576946712</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4752,7 +4752,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>6319.541888926912</v>
+        <v>6319.541888926911</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4956,7 +4956,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>7346.013699225546</v>
+        <v>7346.013699225547</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6544,7 +6544,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>75257.40334895175</v>
+        <v>75257.40334895176</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7200,7 +7200,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>61083.87171927554</v>
+        <v>61083.87171927553</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7404,7 +7404,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>75394.09624097557</v>
+        <v>75394.09624097559</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8496,7 +8496,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>683361.5126218386</v>
+        <v>683361.5126218387</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8584,7 +8584,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>801426.1657882103</v>
+        <v>801426.1657882105</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10172,7 +10172,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1611352.702603552</v>
+        <v>1611352.702603551</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10536,7 +10536,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3418303.91911061</v>
+        <v>3418303.919110609</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10624,7 +10624,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4707900.035502108</v>
+        <v>4707900.035502109</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10828,7 +10828,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5125887.255666183</v>
+        <v>5125887.255666184</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11032,7 +11032,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5484502.822445724</v>
+        <v>5484502.822445725</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11848,7 +11848,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5977767.906699029</v>
+        <v>5977767.906699028</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12460,7 +12460,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5465593.436070732</v>
+        <v>5465593.436070731</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12824,7 +12824,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1255575.164642266</v>
+        <v>1255575.164642267</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13436,7 +13436,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>877160.9624773269</v>
+        <v>877160.962477327</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13480,7 +13480,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4272212.862228901</v>
+        <v>4272212.8622289</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13888,7 +13888,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4238131.521382453</v>
+        <v>4238131.521382452</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14340,7 +14340,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>558501.1434743473</v>
+        <v>558501.1434743475</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -14704,7 +14704,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5157206.553367522</v>
+        <v>5157206.553367523</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -15520,7 +15520,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>7464733.349540128</v>
+        <v>7464733.349540127</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -15636,7 +15636,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3305912.836273953</v>
+        <v>3305912.836273954</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16044,7 +16044,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3668244.889322196</v>
+        <v>3668244.889322197</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16860,7 +16860,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3824444.125267517</v>
+        <v>3824444.125267516</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17064,7 +17064,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3706599.64948783</v>
+        <v>3706599.649487829</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17924,7 +17924,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1986640.684855485</v>
+        <v>1986640.684855484</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19556,7 +19556,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1807924.603954539</v>
+        <v>1807924.60395454</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19644,7 +19644,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1163391.747193944</v>
+        <v>1163391.747193943</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20168,7 +20168,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2289694.900803863</v>
+        <v>2289694.900803862</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20780,7 +20780,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2707458.249629219</v>
+        <v>2707458.249629218</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -21072,7 +21072,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2013041.842705695</v>
+        <v>2013041.842705694</v>
       </c>
     </row>
     <row r="17" spans="1:4">
